--- a/Control Table.xlsx
+++ b/Control Table.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360极速下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE93485E-E803-4140-84E9-20D923052910}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC41042C-065C-4010-A55D-B4F32CE74781}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="3" xr2:uid="{2F7AED14-F65B-4FF4-94E1-70E62375DA8C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{2F7AED14-F65B-4FF4-94E1-70E62375DA8C}"/>
   </bookViews>
   <sheets>
     <sheet name="会员状态组合" sheetId="1" r:id="rId1"/>
-    <sheet name="Order Feedback&amp;Update" sheetId="3" r:id="rId2"/>
-    <sheet name="Order API统计" sheetId="4" r:id="rId3"/>
-    <sheet name="个人与公司关联" sheetId="5" r:id="rId4"/>
-    <sheet name="通用Discard弹窗" sheetId="2" r:id="rId5"/>
+    <sheet name="用户状态" sheetId="6" r:id="rId2"/>
+    <sheet name="Order Feedback&amp;Update" sheetId="3" r:id="rId3"/>
+    <sheet name="Order API统计" sheetId="4" r:id="rId4"/>
+    <sheet name="个人与公司关联" sheetId="5" r:id="rId5"/>
+    <sheet name="通用Discard弹窗" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="253">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +851,147 @@
   </si>
   <si>
     <t>verify_status</t>
+  </si>
+  <si>
+    <t>userDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initMemberAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=主账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=子账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=充过钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=没充钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=普通子账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=高级子账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=主账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=free pros/free prom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=pros/prom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=free pros/free prom/pros/prom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedProductTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowLookProductStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProductStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addContactStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyProductTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberStartTime
+memberEndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=未申请试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=提了试用申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=未提交认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=认证中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=已认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=认证被拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,7 +1071,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +1093,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,33 +1345,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,16 +1354,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,107 +1366,182 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,7 +1860,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1687,17 +1874,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1896,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1722,7 +1909,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1922,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +1935,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1773,6 +1960,310 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD947-1E3B-4DAA-8761-333AD586DA8E}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="60"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B903E04-F8D1-4AD8-B4A9-06ADDABD3A5F}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -1782,286 +2273,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="17.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F273D-FD51-451D-884F-170F680E603C}">
   <dimension ref="A1:C89"/>
   <sheetViews>
@@ -2071,752 +2562,719 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="49"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-    </row>
-    <row r="20" spans="1:3" s="29" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-    </row>
-    <row r="34" spans="1:3" s="29" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="41" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="45" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="45"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="47" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="41" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="41"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-    </row>
-    <row r="56" spans="1:3" s="29" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="33"/>
+      <c r="C57" s="37"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="33" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="33"/>
+      <c r="C58" s="37"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="33"/>
+      <c r="C59" s="37"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="33" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="33"/>
+      <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="33"/>
+      <c r="C61" s="37"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="33"/>
+      <c r="C62" s="37"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="33"/>
+      <c r="C63" s="37"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="33"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="33"/>
+      <c r="C65" s="37"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="33"/>
+      <c r="C66" s="37"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="33"/>
+      <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-    </row>
-    <row r="69" spans="1:3" s="29" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
+      <c r="A68" s="20"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="41"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-    </row>
-    <row r="72" spans="1:3" s="29" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="35"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="41" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="41" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="53" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="54"/>
+      <c r="C77" s="35"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="53" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="35"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="54"/>
+      <c r="C79" s="35"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="53" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="54"/>
+      <c r="C80" s="35"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-    </row>
-    <row r="82" spans="1:3" s="29" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="50" t="s">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+    </row>
+    <row r="82" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="41" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="41" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="41" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="41" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="41" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="41"/>
+      <c r="C89" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:A54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -2831,17 +3289,50 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:A54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3A2265-A89B-4C95-938E-250B840E9F62}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2852,336 +3343,336 @@
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="58"/>
+      <c r="E29" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3189,7 +3680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEBFBBB-1FEA-4A25-B6DC-870411858EC8}">
   <dimension ref="C2:F4"/>
   <sheetViews>
@@ -3200,30 +3691,30 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Control Table.xlsx
+++ b/Control Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC41042C-065C-4010-A55D-B4F32CE74781}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFEEB681-E1DF-48EF-BB70-BF424A3754E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{2F7AED14-F65B-4FF4-94E1-70E62375DA8C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{2F7AED14-F65B-4FF4-94E1-70E62375DA8C}"/>
   </bookViews>
   <sheets>
     <sheet name="会员状态组合" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="254">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,29 +65,6 @@
   </si>
   <si>
     <t>0非会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>renew按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状默认勾选pro
-预期默认勾选basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状显示update按钮
-预期显示renew按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状显示upgrade按钮，history按钮和过期时间栏
-预期不显示上面三项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -991,6 +968,35 @@
   </si>
   <si>
     <t>3=认证被拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期：默认勾选basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状：左下无过期时间，右下无upgrade按钮
+预期：左下过期时间，右下upgrade按钮，右上history按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状：左下无过期时间，右下无renew按钮
+预期：左下过期时间，右下renew按钮，右上history按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状：左下有过期时间，右下有renew按钮，右上有history按钮
+预期：右下无renew按钮，右上无history按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状：左下有过期时间，右下有upgrade按钮，右上有history按钮
+预期：右下无upgrade按钮，右上无history按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状：左下有过期时间，右下有renew按钮，右上有history按钮
+预期：右下无renew按钮，右上无history按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,9 +1342,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1411,74 +1414,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1504,44 +1546,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37EBACF-6293-4C09-B71E-76B0BB742005}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A12:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1868,23 +1874,23 @@
     <col min="1" max="1" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5546875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1896,55 +1902,55 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD947-1E3B-4DAA-8761-333AD586DA8E}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1976,265 +1982,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="25" t="s">
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="60"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="59"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="59"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59" t="s">
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="59"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59" t="s">
+      <c r="D19" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="59"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="60"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="65" t="s">
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="38" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="66" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="61"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61" t="s">
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="61"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="61"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="61"/>
+      <c r="D30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C28:D28"/>
@@ -2251,11 +2262,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2273,279 +2279,279 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="B6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C10" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9" t="s">
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="41"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="33"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="B25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="33"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="33"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="33"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="C29" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2562,719 +2568,752 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="49"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="51"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="48"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49" t="s">
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="49"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="C8" s="50"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="C9" s="50"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="41"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37" t="s">
+      <c r="C10" s="50"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="37"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="37"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="C12" s="50"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="37"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="37"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="37"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="37"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="49"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="50"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="C17" s="54"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="48"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="C18" s="50"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="49" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="49"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="C21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="41" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
+      <c r="C22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="16" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="16" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="16" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="16" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="16" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="16" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="16" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="16" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="16" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="16" t="s">
+      <c r="B32" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C32" s="56"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="16" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="44" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="C36" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="47"/>
+      <c r="B37" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="16" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="47"/>
+      <c r="B41" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="16" t="s">
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="47"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C43" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="16" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="47"/>
+      <c r="B44" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="17" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="19" t="s">
+      <c r="C45" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="19" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="16" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="16" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="47"/>
+      <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="16" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="16" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="15" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="16" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="16" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="47"/>
+      <c r="B52" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="16" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="47"/>
+      <c r="B53" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="16" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="47"/>
+      <c r="B54" s="15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="16" t="s">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="50"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="47"/>
+      <c r="B58" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="50"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="47"/>
+      <c r="B59" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="50"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="47"/>
+      <c r="B60" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="50"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="47"/>
+      <c r="B61" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="50"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="47"/>
+      <c r="B62" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="50"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="47"/>
+      <c r="B63" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="50"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="47"/>
+      <c r="B64" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="50"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="47"/>
+      <c r="B65" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="50"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="47"/>
+      <c r="B66" s="50" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="16" t="s">
+      <c r="C66" s="50"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="47"/>
+      <c r="B67" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C67" s="50"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="16" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-    </row>
-    <row r="56" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="B70" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="37"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="37"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="37"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="37"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="37"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="37"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="37"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37" t="s">
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="37"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37" t="s">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="37"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-    </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="B73" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="C73" s="62"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="C74" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-    </row>
-    <row r="72" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="47"/>
+      <c r="B75" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
+      <c r="C75" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="34" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="47"/>
+      <c r="B76" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="35"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="16" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="47"/>
+      <c r="B77" s="61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="16" t="s">
+      <c r="C77" s="62"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C78" s="62"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="61" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="16" t="s">
+      <c r="C79" s="62"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C80" s="62"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+    </row>
+    <row r="82" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="34" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="35"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="34" t="s">
+      <c r="B83" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="35"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="34" t="s">
+      <c r="C83" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="35"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="34" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="47"/>
+      <c r="B84" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="35"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-    </row>
-    <row r="82" spans="1:3" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
+      <c r="C84" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="47"/>
+      <c r="B85" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="16" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="47"/>
+      <c r="B86" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="16" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="47"/>
+      <c r="B87" s="15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="16" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="47"/>
+      <c r="B88" s="15" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="16" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="47"/>
+      <c r="B89" s="15" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="16"/>
+      <c r="C89" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:A54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3289,39 +3328,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:A54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3343,336 +3349,336 @@
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="27"/>
+      <c r="E29" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3691,30 +3697,30 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="58"/>
+      <c r="C4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Control Table.xlsx
+++ b/Control Table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFEEB681-E1DF-48EF-BB70-BF424A3754E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{2F7AED14-F65B-4FF4-94E1-70E62375DA8C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="会员状态组合" sheetId="1" r:id="rId1"/>
@@ -19,6 +18,7 @@
     <sheet name="Order API统计" sheetId="4" r:id="rId4"/>
     <sheet name="个人与公司关联" sheetId="5" r:id="rId5"/>
     <sheet name="通用Discard弹窗" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="258">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,13 +997,29 @@
   <si>
     <t>现状：左下有过期时间，右下有renew按钮，右上有history按钮
 预期：右下无renew按钮，右上无history按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期的号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1429,9 +1445,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,9 +1467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1456,25 +1475,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1483,45 +1535,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,9 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,11 +1878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37EBACF-6293-4C09-B71E-76B0BB742005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1880,17 +1896,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1902,20 +1918,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="32" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1944,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1941,7 +1957,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1966,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD947-1E3B-4DAA-8761-333AD586DA8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1982,10 +1998,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="2" t="s">
         <v>213</v>
       </c>
@@ -1994,13 +2010,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="34" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -2008,21 +2024,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="24" t="s">
         <v>219</v>
       </c>
@@ -2034,38 +2050,38 @@
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -2074,13 +2090,13 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="34" t="s">
         <v>241</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="34" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2088,11 +2104,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="24" t="s">
         <v>224</v>
       </c>
@@ -2100,7 +2116,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="38"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="24" t="s">
         <v>225</v>
       </c>
@@ -2108,7 +2124,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="38"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="24" t="s">
         <v>226</v>
       </c>
@@ -2116,10 +2132,10 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -2140,15 +2156,15 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="37" t="s">
         <v>233</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -2158,7 +2174,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="36"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="31" t="s">
         <v>245</v>
       </c>
@@ -2166,7 +2182,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="36"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="31" t="s">
         <v>246</v>
       </c>
@@ -2174,7 +2190,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="31" t="s">
         <v>247</v>
       </c>
@@ -2182,70 +2198,65 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A6:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C28:D28"/>
@@ -2262,6 +2273,11 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2270,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B903E04-F8D1-4AD8-B4A9-06ADDABD3A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2300,7 +2316,7 @@
       <c r="A2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2308,8 +2324,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
@@ -2339,8 +2355,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2368,30 +2384,30 @@
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -2405,23 +2421,23 @@
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -2435,16 +2451,16 @@
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -2458,16 +2474,16 @@
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -2486,15 +2502,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
@@ -2508,7 +2524,7 @@
       <c r="A29" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2516,8 +2532,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
@@ -2536,22 +2552,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2559,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F273D-FD51-451D-884F-170F680E603C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -2575,34 +2591,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -2614,83 +2630,83 @@
       <c r="C5" s="54"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="50" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="50"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
@@ -2702,7 +2718,7 @@
       <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="50" t="s">
         <v>61</v>
       </c>
@@ -2714,14 +2730,14 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2732,7 +2748,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2757,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2750,7 +2766,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -2759,7 +2775,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="15" t="s">
         <v>71</v>
       </c>
@@ -2768,7 +2784,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
@@ -2777,7 +2793,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="15" t="s">
         <v>75</v>
       </c>
@@ -2786,7 +2802,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="15" t="s">
         <v>77</v>
       </c>
@@ -2795,7 +2811,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="15" t="s">
         <v>79</v>
       </c>
@@ -2804,7 +2820,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
@@ -2825,10 +2841,10 @@
       <c r="A32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -2836,14 +2852,14 @@
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="49" t="s">
         <v>88</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2854,7 +2870,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="15" t="s">
         <v>91</v>
       </c>
@@ -2863,7 +2879,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="15" t="s">
         <v>93</v>
       </c>
@@ -2872,7 +2888,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
@@ -2881,7 +2897,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="15" t="s">
         <v>94</v>
       </c>
@@ -2890,7 +2906,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="15" t="s">
         <v>96</v>
       </c>
@@ -2899,19 +2915,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="18" t="s">
         <v>99</v>
       </c>
@@ -2920,7 +2936,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="15" t="s">
         <v>101</v>
       </c>
@@ -2929,7 +2945,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="15" t="s">
         <v>103</v>
       </c>
@@ -2938,7 +2954,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="15" t="s">
         <v>105</v>
       </c>
@@ -2947,7 +2963,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2956,7 +2972,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2965,7 +2981,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="15" t="s">
         <v>111</v>
       </c>
@@ -2974,7 +2990,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="15" t="s">
         <v>113</v>
       </c>
@@ -2983,7 +2999,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="15" t="s">
         <v>115</v>
       </c>
@@ -2992,7 +3008,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="15" t="s">
         <v>117</v>
       </c>
@@ -3001,7 +3017,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="15" t="s">
         <v>119</v>
       </c>
@@ -3010,7 +3026,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="15" t="s">
         <v>121</v>
       </c>
@@ -3022,14 +3038,14 @@
       <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="49" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="50" t="s">
@@ -3038,70 +3054,70 @@
       <c r="C57" s="50"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="50"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="50"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="50"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C61" s="50"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="50"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="50"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="50" t="s">
         <v>53</v>
       </c>
       <c r="C64" s="50"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="50"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="50" t="s">
         <v>123</v>
       </c>
       <c r="C66" s="50"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="50" t="s">
         <v>124</v>
       </c>
@@ -3141,16 +3157,16 @@
       <c r="C72" s="20"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="62"/>
+      <c r="C73" s="48"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="15" t="s">
         <v>131</v>
       </c>
@@ -3159,7 +3175,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="15" t="s">
         <v>133</v>
       </c>
@@ -3168,7 +3184,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="15" t="s">
         <v>135</v>
       </c>
@@ -3177,32 +3193,32 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="49"/>
+      <c r="B77" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="62"/>
+      <c r="C77" s="48"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="61" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="62"/>
+      <c r="C78" s="48"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="61" t="s">
+      <c r="A79" s="49"/>
+      <c r="B79" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="62"/>
+      <c r="C79" s="48"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="61" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="62"/>
+      <c r="C80" s="48"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
@@ -3217,7 +3233,7 @@
       <c r="C82" s="20"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -3228,7 +3244,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="15" t="s">
         <v>145</v>
       </c>
@@ -3237,7 +3253,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="15" t="s">
         <v>147</v>
       </c>
@@ -3246,7 +3262,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="15" t="s">
         <v>149</v>
       </c>
@@ -3255,7 +3271,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="15" t="s">
         <v>151</v>
       </c>
@@ -3264,7 +3280,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="15" t="s">
         <v>153</v>
       </c>
@@ -3273,7 +3289,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="15" t="s">
         <v>155</v>
       </c>
@@ -3281,39 +3297,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:A54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3328,6 +3311,39 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:A54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,7 +3351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3A2265-A89B-4C95-938E-250B840E9F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3687,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEBFBBB-1FEA-4A25-B6DC-870411858EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3697,30 +3713,30 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3733,4 +3749,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1">
+        <v>1003001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2">
+        <v>1003002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>1003000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4">
+        <v>1020550</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Control Table.xlsx
+++ b/Control Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AEED7A49-5158-4F0B-9F73-153C4FA9625D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员状态组合" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="254">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,35 +972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预期：默认勾选basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状：左下无过期时间，右下无upgrade按钮
-预期：左下过期时间，右下upgrade按钮，右上history按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状：左下无过期时间，右下无renew按钮
-预期：左下过期时间，右下renew按钮，右上history按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状：左下有过期时间，右下有renew按钮，右上有history按钮
-预期：右下无renew按钮，右上无history按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状：左下有过期时间，右下有upgrade按钮，右上有history按钮
-预期：右下无upgrade按钮，右上无history按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现状：左下有过期时间，右下有renew按钮，右上有history按钮
-预期：右下无renew按钮，右上无history按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1013,13 +985,20 @@
   </si>
   <si>
     <t>过期的号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击renew无法进入续费页面</t>
+  </si>
+  <si>
+    <t>点击renew无法进入续费页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,22 +1430,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1475,71 +1454,71 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1878,11 +1857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1917,57 +1896,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>248</v>
-      </c>
+      <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1982,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1998,10 +1967,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="2" t="s">
         <v>213</v>
       </c>
@@ -2010,13 +1979,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -2024,21 +1993,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="24" t="s">
         <v>219</v>
       </c>
@@ -2050,34 +2019,34 @@
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="40" t="s">
         <v>227</v>
       </c>
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="40" t="s">
         <v>228</v>
       </c>
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="40" t="s">
         <v>229</v>
       </c>
@@ -2090,13 +2059,13 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="39" t="s">
         <v>241</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="39" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2104,11 +2073,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="24" t="s">
         <v>224</v>
       </c>
@@ -2116,7 +2085,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="24" t="s">
         <v>225</v>
       </c>
@@ -2124,7 +2093,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="24" t="s">
         <v>226</v>
       </c>
@@ -2132,10 +2101,10 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -2156,15 +2125,15 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>233</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -2174,7 +2143,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="31" t="s">
         <v>245</v>
       </c>
@@ -2182,7 +2151,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="31" t="s">
         <v>246</v>
       </c>
@@ -2190,7 +2159,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="31" t="s">
         <v>247</v>
       </c>
@@ -2204,26 +2173,26 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
@@ -2234,29 +2203,34 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C28:D28"/>
@@ -2273,11 +2247,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2286,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2313,10 +2282,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2325,7 +2294,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
@@ -2344,10 +2313,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2378,36 +2347,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -2415,29 +2384,29 @@
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -2445,13 +2414,13 @@
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="42" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2460,7 +2429,7 @@
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -2468,13 +2437,13 @@
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="42" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2483,7 +2452,7 @@
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -2491,10 +2460,10 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2502,15 +2471,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
@@ -2521,10 +2490,10 @@
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2533,7 +2502,7 @@
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
-      <c r="B30" s="46"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
@@ -2552,22 +2521,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2575,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -2591,138 +2560,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="51"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="51"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="51"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="51"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="51"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="51"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="51"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="52"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="51"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -2730,14 +2699,14 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2748,7 +2717,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2726,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2766,7 +2735,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -2775,7 +2744,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="15" t="s">
         <v>71</v>
       </c>
@@ -2784,7 +2753,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
@@ -2793,7 +2762,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="15" t="s">
         <v>75</v>
       </c>
@@ -2802,7 +2771,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="15" t="s">
         <v>77</v>
       </c>
@@ -2811,7 +2780,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="15" t="s">
         <v>79</v>
       </c>
@@ -2820,7 +2789,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
@@ -2829,7 +2798,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="15" t="s">
         <v>83</v>
       </c>
@@ -2841,10 +2810,10 @@
       <c r="A32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="57"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -2852,14 +2821,14 @@
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2870,7 +2839,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="15" t="s">
         <v>91</v>
       </c>
@@ -2879,7 +2848,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="15" t="s">
         <v>93</v>
       </c>
@@ -2888,7 +2857,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
@@ -2897,7 +2866,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="15" t="s">
         <v>94</v>
       </c>
@@ -2906,7 +2875,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="15" t="s">
         <v>96</v>
       </c>
@@ -2915,19 +2884,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="18" t="s">
         <v>99</v>
       </c>
@@ -2936,7 +2905,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="15" t="s">
         <v>101</v>
       </c>
@@ -2945,7 +2914,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="15" t="s">
         <v>103</v>
       </c>
@@ -2954,7 +2923,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="15" t="s">
         <v>105</v>
       </c>
@@ -2963,7 +2932,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2972,7 +2941,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2981,7 +2950,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="15" t="s">
         <v>111</v>
       </c>
@@ -2990,7 +2959,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="15" t="s">
         <v>113</v>
       </c>
@@ -2999,7 +2968,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="15" t="s">
         <v>115</v>
       </c>
@@ -3008,7 +2977,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="15" t="s">
         <v>117</v>
       </c>
@@ -3017,7 +2986,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="15" t="s">
         <v>119</v>
       </c>
@@ -3026,7 +2995,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="15" t="s">
         <v>121</v>
       </c>
@@ -3038,90 +3007,90 @@
       <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="51"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="51"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50" t="s">
+      <c r="A59" s="48"/>
+      <c r="B59" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="51"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="51"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="51"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="50"/>
+      <c r="C62" s="51"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="51"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50" t="s">
+      <c r="A64" s="48"/>
+      <c r="B64" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="50"/>
+      <c r="C64" s="51"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50" t="s">
+      <c r="A65" s="48"/>
+      <c r="B65" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="50"/>
+      <c r="C65" s="51"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="50"/>
+      <c r="C66" s="51"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50" t="s">
+      <c r="A67" s="48"/>
+      <c r="B67" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="50"/>
+      <c r="C67" s="51"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
@@ -3157,16 +3126,16 @@
       <c r="C72" s="20"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="48"/>
+      <c r="C73" s="63"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="15" t="s">
         <v>131</v>
       </c>
@@ -3175,7 +3144,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="15" t="s">
         <v>133</v>
       </c>
@@ -3184,7 +3153,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="15" t="s">
         <v>135</v>
       </c>
@@ -3193,32 +3162,32 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="48"/>
+      <c r="B77" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="48"/>
+      <c r="C77" s="63"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="47" t="s">
+      <c r="A78" s="48"/>
+      <c r="B78" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="48"/>
+      <c r="C78" s="63"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="47" t="s">
+      <c r="A79" s="48"/>
+      <c r="B79" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="48"/>
+      <c r="C79" s="63"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="47" t="s">
+      <c r="A80" s="48"/>
+      <c r="B80" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="48"/>
+      <c r="C80" s="63"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
@@ -3233,7 +3202,7 @@
       <c r="C82" s="20"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -3244,7 +3213,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="15" t="s">
         <v>145</v>
       </c>
@@ -3253,7 +3222,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="15" t="s">
         <v>147</v>
       </c>
@@ -3262,7 +3231,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="15" t="s">
         <v>149</v>
       </c>
@@ -3271,7 +3240,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="15" t="s">
         <v>151</v>
       </c>
@@ -3280,7 +3249,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="15" t="s">
         <v>153</v>
       </c>
@@ -3289,7 +3258,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="15" t="s">
         <v>155</v>
       </c>
@@ -3297,6 +3266,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:A54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3311,39 +3313,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:A54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3351,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3703,7 +3672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C2:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3752,10 +3721,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3763,7 +3732,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B1">
         <v>1003001</v>
@@ -3771,7 +3740,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B2">
         <v>1003002</v>
@@ -3779,7 +3748,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B3">
         <v>1003000</v>
@@ -3787,7 +3756,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B4">
         <v>1020550</v>

--- a/Control Table.xlsx
+++ b/Control Table.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AEED7A49-5158-4F0B-9F73-153C4FA9625D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="会员状态组合" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="253">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -988,17 +987,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击renew无法进入续费页面</t>
-  </si>
-  <si>
-    <t>点击renew无法进入续费页面</t>
+    <t>点击renew进入了页面标题和收费种类显示了extra package</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1430,6 +1426,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,9 +1442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1454,25 +1450,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1481,44 +1510,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1857,11 +1853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1913,9 +1909,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1967,10 +1961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="2" t="s">
         <v>213</v>
       </c>
@@ -1979,13 +1973,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="34" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -1993,21 +1987,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="24" t="s">
         <v>219</v>
       </c>
@@ -2019,34 +2013,34 @@
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="40" t="s">
         <v>227</v>
       </c>
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="40" t="s">
         <v>228</v>
       </c>
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="40" t="s">
         <v>229</v>
       </c>
@@ -2059,13 +2053,13 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>241</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="34" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2073,11 +2067,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="24" t="s">
         <v>224</v>
       </c>
@@ -2085,7 +2079,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="24" t="s">
         <v>225</v>
       </c>
@@ -2093,7 +2087,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="24" t="s">
         <v>226</v>
       </c>
@@ -2101,10 +2095,10 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -2125,15 +2119,15 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>233</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -2143,7 +2137,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="31" t="s">
         <v>245</v>
       </c>
@@ -2151,7 +2145,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="31" t="s">
         <v>246</v>
       </c>
@@ -2159,7 +2153,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="31" t="s">
         <v>247</v>
       </c>
@@ -2173,26 +2167,26 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
@@ -2203,34 +2197,29 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A6:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C28:D28"/>
@@ -2247,6 +2236,11 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2255,7 +2249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2282,10 +2276,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2294,7 +2288,7 @@
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
-      <c r="B3" s="42"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
@@ -2313,10 +2307,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2347,36 +2341,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -2384,29 +2378,29 @@
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -2414,13 +2408,13 @@
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2429,7 +2423,7 @@
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -2437,13 +2431,13 @@
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="46" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2452,7 +2446,7 @@
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -2460,10 +2454,10 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2471,15 +2465,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
@@ -2490,10 +2484,10 @@
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2502,7 +2496,7 @@
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
@@ -2521,22 +2515,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,7 +2538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -2560,138 +2554,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="50"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="50"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -2699,14 +2693,14 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2717,7 +2711,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -2726,7 +2720,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2735,7 +2729,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -2744,7 +2738,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="15" t="s">
         <v>71</v>
       </c>
@@ -2753,7 +2747,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
@@ -2762,7 +2756,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="15" t="s">
         <v>75</v>
       </c>
@@ -2771,7 +2765,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="15" t="s">
         <v>77</v>
       </c>
@@ -2780,7 +2774,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="15" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +2783,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
@@ -2798,7 +2792,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="15" t="s">
         <v>83</v>
       </c>
@@ -2810,10 +2804,10 @@
       <c r="A32" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -2821,14 +2815,14 @@
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>88</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2839,7 +2833,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="15" t="s">
         <v>91</v>
       </c>
@@ -2848,7 +2842,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="15" t="s">
         <v>93</v>
       </c>
@@ -2857,7 +2851,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
@@ -2866,7 +2860,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="15" t="s">
         <v>94</v>
       </c>
@@ -2875,7 +2869,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="15" t="s">
         <v>96</v>
       </c>
@@ -2884,19 +2878,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="18" t="s">
         <v>99</v>
       </c>
@@ -2905,7 +2899,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="15" t="s">
         <v>101</v>
       </c>
@@ -2914,7 +2908,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="15" t="s">
         <v>103</v>
       </c>
@@ -2923,7 +2917,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="15" t="s">
         <v>105</v>
       </c>
@@ -2932,7 +2926,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2941,7 +2935,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2950,7 +2944,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="15" t="s">
         <v>111</v>
       </c>
@@ -2959,7 +2953,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="15" t="s">
         <v>113</v>
       </c>
@@ -2968,7 +2962,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="15" t="s">
         <v>115</v>
       </c>
@@ -2977,7 +2971,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="15" t="s">
         <v>117</v>
       </c>
@@ -2986,7 +2980,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="15" t="s">
         <v>119</v>
       </c>
@@ -2995,7 +2989,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="15" t="s">
         <v>121</v>
       </c>
@@ -3007,90 +3001,90 @@
       <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="50"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="51" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="50"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="51" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="50"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="51" t="s">
+      <c r="A60" s="49"/>
+      <c r="B60" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="50"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="51" t="s">
+      <c r="A61" s="49"/>
+      <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="50"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="51" t="s">
+      <c r="A62" s="49"/>
+      <c r="B62" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="50"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="49"/>
+      <c r="B63" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="50"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="51" t="s">
+      <c r="A64" s="49"/>
+      <c r="B64" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="50"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="50"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="51" t="s">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="50"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="51" t="s">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="50"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
@@ -3126,16 +3120,16 @@
       <c r="C72" s="20"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="63"/>
+      <c r="C73" s="48"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="15" t="s">
         <v>131</v>
       </c>
@@ -3144,7 +3138,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="15" t="s">
         <v>133</v>
       </c>
@@ -3153,7 +3147,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="15" t="s">
         <v>135</v>
       </c>
@@ -3162,32 +3156,32 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="62" t="s">
+      <c r="A77" s="49"/>
+      <c r="B77" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="63"/>
+      <c r="C77" s="48"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="62" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="63"/>
+      <c r="C78" s="48"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="62" t="s">
+      <c r="A79" s="49"/>
+      <c r="B79" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="63"/>
+      <c r="C79" s="48"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="62" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="63"/>
+      <c r="C80" s="48"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
@@ -3202,7 +3196,7 @@
       <c r="C82" s="20"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -3213,7 +3207,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="15" t="s">
         <v>145</v>
       </c>
@@ -3222,7 +3216,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="15" t="s">
         <v>147</v>
       </c>
@@ -3231,7 +3225,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="15" t="s">
         <v>149</v>
       </c>
@@ -3240,7 +3234,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="15" t="s">
         <v>151</v>
       </c>
@@ -3249,7 +3243,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="15" t="s">
         <v>153</v>
       </c>
@@ -3258,7 +3252,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="15" t="s">
         <v>155</v>
       </c>
@@ -3266,39 +3260,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:A54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3313,6 +3274,39 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:A54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3320,7 +3314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3672,7 +3666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3721,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Control Table.xlsx
+++ b/Control Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{747530F7-7F4F-4246-96B0-EF696B121002}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员状态组合" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Order API统计" sheetId="4" r:id="rId4"/>
     <sheet name="个人与公司关联" sheetId="5" r:id="rId5"/>
     <sheet name="通用Discard弹窗" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Company Data输入上限" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="280">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,30 +972,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过期的号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击renew进入了页面标题和收费种类显示了extra package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID（即offer no）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能输入20 个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotnact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无筛选列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能输入10 个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1323,7 +1432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,25 +1532,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1450,71 +1562,71 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1538,6 +1650,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1853,10 +1971,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1871,17 +1989,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +2011,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1904,7 +2022,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +2031,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1922,13 +2040,13 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -1945,7 +2063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1973,13 +2091,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="40" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -1987,21 +2105,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="24" t="s">
         <v>219</v>
       </c>
@@ -2013,38 +2131,38 @@
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -2053,13 +2171,13 @@
       <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="40" t="s">
         <v>241</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="40" t="s">
         <v>223</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -2067,11 +2185,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="24" t="s">
         <v>224</v>
       </c>
@@ -2079,7 +2197,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="24" t="s">
         <v>225</v>
       </c>
@@ -2087,7 +2205,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="24" t="s">
         <v>226</v>
       </c>
@@ -2095,10 +2213,10 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -2119,10 +2237,10 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
@@ -2161,65 +2279,70 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A6:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C28:D28"/>
@@ -2236,11 +2359,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2276,10 +2394,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2287,8 +2405,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
@@ -2307,10 +2425,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2318,8 +2436,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2341,36 +2459,36 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -2378,29 +2496,29 @@
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -2408,22 +2526,22 @@
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -2431,22 +2549,22 @@
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -2454,10 +2572,10 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2465,15 +2583,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="8" t="s">
         <v>33</v>
       </c>
@@ -2484,10 +2602,10 @@
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2495,8 +2613,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
@@ -2515,22 +2633,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -2554,138 +2672,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="53"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="56"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="52"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="52"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="52"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="51"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="52"/>
     </row>
     <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="56"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="52"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -2693,14 +2811,14 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2711,7 +2829,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
@@ -2720,7 +2838,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2729,7 +2847,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -2738,7 +2856,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="15" t="s">
         <v>71</v>
       </c>
@@ -2747,7 +2865,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="15" t="s">
         <v>73</v>
       </c>
@@ -2756,7 +2874,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="15" t="s">
         <v>75</v>
       </c>
@@ -2765,7 +2883,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="15" t="s">
         <v>77</v>
       </c>
@@ -2774,7 +2892,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="15" t="s">
         <v>79</v>
       </c>
@@ -2783,7 +2901,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
@@ -2792,7 +2910,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="15" t="s">
         <v>83</v>
       </c>
@@ -2815,11 +2933,11 @@
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
@@ -3001,90 +3119,90 @@
       <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" s="13" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="50"/>
+      <c r="C57" s="52"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="52"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="50"/>
+      <c r="C59" s="52"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="50"/>
+      <c r="C60" s="52"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="50"/>
+      <c r="C61" s="52"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="50"/>
+      <c r="C62" s="52"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="50"/>
+      <c r="C63" s="52"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="50"/>
+      <c r="C64" s="52"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="50"/>
+      <c r="C65" s="52"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="50"/>
+      <c r="C66" s="52"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="50"/>
+      <c r="C67" s="52"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
@@ -3123,10 +3241,10 @@
       <c r="A73" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="48"/>
+      <c r="C73" s="64"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
@@ -3157,31 +3275,31 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="48"/>
+      <c r="C77" s="64"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="48"/>
+      <c r="C78" s="64"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="48"/>
+      <c r="C79" s="64"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="48"/>
+      <c r="C80" s="64"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
@@ -3260,6 +3378,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:A54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3274,39 +3425,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:A54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3314,7 +3432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3666,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C2:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3676,30 +3794,30 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3715,45 +3833,298 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="33"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="B1">
-        <v>1003001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2">
-        <v>1003002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B3">
-        <v>1003000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B4">
-        <v>1020550</v>
+      <c r="D2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="33">
+        <v>9</v>
+      </c>
+      <c r="D3" s="33">
+        <v>50</v>
+      </c>
+      <c r="F3" s="33">
+        <v>50</v>
+      </c>
+      <c r="H3" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="33">
+        <v>50</v>
+      </c>
+      <c r="D7" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="33">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="73" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="33">
+        <v>20</v>
+      </c>
+      <c r="E15" s="33">
+        <v>50</v>
+      </c>
+      <c r="F15" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="33">
+        <v>50</v>
+      </c>
+      <c r="C19" s="33">
+        <v>50</v>
+      </c>
+      <c r="E19" s="33">
+        <v>20</v>
+      </c>
+      <c r="F19" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
